--- a/TesteLeitura.xlsx
+++ b/TesteLeitura.xlsx
@@ -327,19 +327,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -452,6 +439,19 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -701,17 +701,307 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Scanner Sem Parsing</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>	Vendas_1M</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>	Vendas_3M</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>	Vendas_5M</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>3.857803277</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5.223936586</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6.599316901</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BufferedReader Sem Parsing</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>	Vendas_1M</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>	Vendas_3M</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>	Vendas_5M</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>0.5787586673</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4.567316216</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5.358194288</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Scanner Com Parsing</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0322580645161291"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>	Vendas_1M</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>	Vendas_3M</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>	Vendas_5M</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>4.395061876</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.434984248</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>9.550268873</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>BufferedReader Com Parsing</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>	Vendas_1M</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>	Vendas_3M</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>	Vendas_5M</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>3.01392147</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>6.02179816</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>8.403637753</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="2126981624"/>
+        <c:axId val="2127273096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2126981624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127273096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2127273096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126981624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1384300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="fsfsdffdfsdfsd"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CustomerList" displayName="CustomerList" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Normal 2">
   <sortState ref="A2:L37">
     <sortCondition descending="1" ref="A1:A37"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Ficheiros" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Scanner Sem Parsing" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="BufferedReader sem Parsing" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Scanner Com Parsing" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="BufferedReader Com Parsing" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Ficheiros" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Scanner Sem Parsing" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" name="BufferedReader sem Parsing" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="Scanner Com Parsing" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" name="BufferedReader Com Parsing" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1045,7 +1335,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelCol="1" x14ac:dyDescent="0"/>
@@ -1410,8 +1700,9 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;"Arial,Bold"&amp;16&amp;K01+021[Company Name]&amp;R&amp;"Arial,Bold"&amp;K01+021&amp;D_x000D_Page &amp;P of &amp;N</oddHeader>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
